--- a/assignment_4/a4_hybid.xlsx
+++ b/assignment_4/a4_hybid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordilazo/git/high_performance_computing_103084/assignment_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordilazo/git/high_performance_computing_103084/assignment_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E15B0E-DEA3-7C4C-BD40-FDEFA81CE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B121FA7E-C21D-7F4E-80B6-E42407CA813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35980" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F3DE4C77-3FC9-9244-9A20-D284DC5D6663}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{F3DE4C77-3FC9-9244-9A20-D284DC5D6663}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Sequencial</t>
   </si>
   <si>
-    <t>Execution time (s)</t>
-  </si>
-  <si>
     <t>6000x4000 (px)</t>
   </si>
   <si>
@@ -59,13 +56,16 @@
     <t>600x400 (px)</t>
   </si>
   <si>
-    <t>2 (mpich)</t>
+    <t>4 (mpich/threads)</t>
   </si>
   <si>
-    <t>4 (mpich)</t>
+    <t>8 (mpich/threads)</t>
   </si>
   <si>
-    <t>8 (mpich)</t>
+    <t>16 (mpich/threads)</t>
+  </si>
+  <si>
+    <t>Execution time (s) - Hybrid</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2 mpich</c:v>
+            <c:v>4 (mpich/thread)</c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
@@ -462,13 +462,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>466.94</c:v>
+                  <c:v>175.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117.08</c:v>
+                  <c:v>46.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.68</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,7 +483,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4 mpich</c:v>
+            <c:v>8 (mpich/thread)</c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
@@ -548,13 +548,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>270.91000000000003</c:v>
+                  <c:v>95.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.47</c:v>
+                  <c:v>23.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,7 +569,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>8 mpich</c:v>
+            <c:v>16 (mpich/thread)</c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
@@ -631,16 +631,16 @@
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>294.74</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>78.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.59</c:v>
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,13 +980,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 (mpich)</c:v>
+                  <c:v>4 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 (mpich)</c:v>
+                  <c:v>8 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 (mpich)</c:v>
+                  <c:v>16 (mpich/threads)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -998,13 +998,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.97224482802929713</c:v>
+                  <c:v>2.5923937871174054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6757594773171902</c:v>
+                  <c:v>4.7587002096436057</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5402727827916129</c:v>
+                  <c:v>5.7545950057041448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,13 +1054,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 (mpich)</c:v>
+                  <c:v>4 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 (mpich)</c:v>
+                  <c:v>8 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 (mpich)</c:v>
+                  <c:v>16 (mpich/threads)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1072,13 +1072,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.96959344038264428</c:v>
+                  <c:v>2.4235695986336463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9088616108962502</c:v>
+                  <c:v>4.7979712595097208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7784740717530942</c:v>
+                  <c:v>6.4135593220338984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,13 +1128,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 (mpich)</c:v>
+                  <c:v>4 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 (mpich)</c:v>
+                  <c:v>8 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 (mpich)</c:v>
+                  <c:v>16 (mpich/threads)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1146,13 +1146,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.99572649572649585</c:v>
+                  <c:v>1.3390804597701149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.33</c:v>
+                  <c:v>5.0652173913043477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9308176100628929</c:v>
+                  <c:v>2.8944099378881987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1499,13 +1499,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 (mpich)</c:v>
+                  <c:v>4 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 (mpich)</c:v>
+                  <c:v>8 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 (mpich)</c:v>
+                  <c:v>16 (mpich/threads)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1517,13 +1517,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.48612241401464856</c:v>
+                  <c:v>0.64809844677935136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41893986932929755</c:v>
+                  <c:v>0.59483752620545072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19253409784895162</c:v>
+                  <c:v>0.35966218785650905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,13 +1573,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 (mpich)</c:v>
+                  <c:v>4 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 (mpich)</c:v>
+                  <c:v>8 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 (mpich)</c:v>
+                  <c:v>16 (mpich/threads)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1591,13 +1591,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.48479672019132214</c:v>
+                  <c:v>0.60589239965841157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47721540272406254</c:v>
+                  <c:v>0.5997464074387151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22230925896913678</c:v>
+                  <c:v>0.40084745762711865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,13 +1647,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 (mpich)</c:v>
+                  <c:v>4 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 (mpich)</c:v>
+                  <c:v>8 (mpich/threads)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 (mpich)</c:v>
+                  <c:v>16 (mpich/threads)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1665,13 +1665,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49786324786324793</c:v>
+                  <c:v>0.33477011494252873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58250000000000002</c:v>
+                  <c:v>0.63315217391304346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36635220125786161</c:v>
+                  <c:v>0.18090062111801242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,19 +3914,20 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3939,64 +3940,64 @@
         <v>2</v>
       </c>
       <c r="C2" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>453.98</v>
       </c>
       <c r="C3" s="5">
-        <v>466.94</v>
+        <v>175.12</v>
       </c>
       <c r="D3" s="5">
-        <v>270.91000000000003</v>
+        <v>95.4</v>
       </c>
       <c r="E3" s="5">
-        <v>294.74</v>
+        <v>78.89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>113.52</v>
       </c>
       <c r="C4" s="5">
-        <v>117.08</v>
+        <v>46.84</v>
       </c>
       <c r="D4" s="5">
-        <v>59.47</v>
-      </c>
-      <c r="E4" s="5">
-        <v>63.83</v>
+        <v>23.66</v>
+      </c>
+      <c r="E4" s="6">
+        <v>17.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>4.66</v>
       </c>
       <c r="C5" s="5">
-        <v>4.68</v>
+        <v>3.48</v>
       </c>
       <c r="D5" s="5">
-        <v>2</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="5">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4016,67 +4017,67 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="6">
         <f xml:space="preserve"> $B$3/C3</f>
-        <v>0.97224482802929713</v>
+        <v>2.5923937871174054</v>
       </c>
       <c r="C9" s="6">
         <f xml:space="preserve"> $B$3/D3</f>
-        <v>1.6757594773171902</v>
+        <v>4.7587002096436057</v>
       </c>
       <c r="D9" s="6">
         <f xml:space="preserve"> $B$3/E3</f>
-        <v>1.5402727827916129</v>
+        <v>5.7545950057041448</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6">
         <f xml:space="preserve"> $B$4/C4</f>
-        <v>0.96959344038264428</v>
+        <v>2.4235695986336463</v>
       </c>
       <c r="C10" s="6">
         <f xml:space="preserve"> $B$4/D4</f>
-        <v>1.9088616108962502</v>
+        <v>4.7979712595097208</v>
       </c>
       <c r="D10" s="6">
         <f xml:space="preserve"> $B$4/E4</f>
-        <v>1.7784740717530942</v>
+        <v>6.4135593220338984</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="6">
         <f xml:space="preserve"> $B$5/C5</f>
-        <v>0.99572649572649585</v>
+        <v>1.3390804597701149</v>
       </c>
       <c r="C11" s="6">
         <f xml:space="preserve"> $B$5/D5</f>
-        <v>2.33</v>
+        <v>5.0652173913043477</v>
       </c>
       <c r="D11" s="6">
         <f xml:space="preserve"> $B$5/E5</f>
-        <v>2.9308176100628929</v>
+        <v>2.8944099378881987</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -4098,65 +4099,65 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="8">
         <f>$B$3/($C$2*C3)</f>
-        <v>0.48612241401464856</v>
+        <v>0.64809844677935136</v>
       </c>
       <c r="C15" s="8">
         <f>$B$3/(D2*D3)</f>
-        <v>0.41893986932929755</v>
+        <v>0.59483752620545072</v>
       </c>
       <c r="D15" s="8">
         <f>$B$3/(E2*E3)</f>
-        <v>0.19253409784895162</v>
+        <v>0.35966218785650905</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="8">
         <f>$B$4/($C$2*C4)</f>
-        <v>0.48479672019132214</v>
+        <v>0.60589239965841157</v>
       </c>
       <c r="C16" s="8">
         <f>$B$4/(D2*D4)</f>
-        <v>0.47721540272406254</v>
+        <v>0.5997464074387151</v>
       </c>
       <c r="D16" s="8">
         <f>$B$4/(E2*E4)</f>
-        <v>0.22230925896913678</v>
+        <v>0.40084745762711865</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="8">
         <f>$B$5/($C$2*C5)</f>
-        <v>0.49786324786324793</v>
+        <v>0.33477011494252873</v>
       </c>
       <c r="C17" s="8">
         <f>$B$5/($D$2*D5)</f>
-        <v>0.58250000000000002</v>
+        <v>0.63315217391304346</v>
       </c>
       <c r="D17" s="8">
         <f>$B$5/($E$2*E5)</f>
-        <v>0.36635220125786161</v>
+        <v>0.18090062111801242</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
